--- a/attendance_report.xlsx
+++ b/attendance_report.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Overall Attendance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overall Attendance" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mathematics" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Science" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEMO" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEMO 1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEMO1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demo2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,6 +454,787 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Computer Science</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Mathematics</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeswin Tom</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Dca</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Dca</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinneth j</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Dca</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeswin Tom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinneth j</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeswin Tom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinneth j</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeswin Tom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinneth j</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeswin Tom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinneth j</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeswin Tom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinneth j</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Roll No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Attendance %</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>R001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Alice Johnson</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>R002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bob Smith</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jeswin Tom</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>thomas</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>vinneth j</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
